--- a/wheat stripe rust/Pure_Interpolation.xlsx
+++ b/wheat stripe rust/Pure_Interpolation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhimc\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhimc\OneDrive\Desktop\Oregon State University\Modeling works_EEID\Across_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D0C27-BB1F-44B6-AA4F-4861E5A939B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18A0A09-F504-4222-B9CC-76999694300D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A6ADAB47-650A-4A4B-BB62-8A2141887135}"/>
   </bookViews>
@@ -95,12 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +419,13 @@
   <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -435,1465 +439,1465 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>39231</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>36.666666666666664</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>39231</v>
       </c>
       <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>32.416666666666664</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>39231</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>28.166666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>39231</v>
       </c>
       <c r="B5">
         <v>7.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>23.916666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>39231</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>19.666666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>39231</v>
       </c>
       <c r="B7">
         <v>12.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>15.416666666666664</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>39231</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>11.166666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>39231</v>
       </c>
       <c r="B9">
         <v>17.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>6.9166666666666643</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>39231</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>2.6666666666666661</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>39231</v>
       </c>
       <c r="B11">
         <v>22.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>2.3799999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>39231</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>2.0933333333333328</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>39231</v>
       </c>
       <c r="B13">
         <v>27.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>1.8066666666666662</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>39231</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>1.5199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>39231</v>
       </c>
       <c r="B15">
         <v>32.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>1.2333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>39231</v>
       </c>
       <c r="B16">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.94666666666666632</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>39231</v>
       </c>
       <c r="B17">
         <v>37.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.65999999999999925</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>39231</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>0.37333333333333341</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>39231</v>
       </c>
       <c r="B19">
         <v>42.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>0.33916666666666673</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>39231</v>
       </c>
       <c r="B20">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>0.30500000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>39231</v>
       </c>
       <c r="B21">
         <v>47.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>0.27083333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>39231</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>0.23666666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>39231</v>
       </c>
       <c r="B23">
         <v>52.5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>0.20250000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>39231</v>
       </c>
       <c r="B24">
         <v>55</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>0.16833333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>39231</v>
       </c>
       <c r="B25">
         <v>57.5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>0.13416666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>39231</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>0.10000000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>39231</v>
       </c>
       <c r="B27">
         <v>62.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>8.9583333333333348E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>39231</v>
       </c>
       <c r="B28">
         <v>65</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>7.9166666666666718E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>39231</v>
       </c>
       <c r="B29">
         <v>67.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>6.8750000000000033E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>39231</v>
       </c>
       <c r="B30">
         <v>70</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>5.8333333333333348E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>39231</v>
       </c>
       <c r="B31">
         <v>72.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>4.7916666666666718E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>39231</v>
       </c>
       <c r="B32">
         <v>75</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>3.7500000000000033E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>39231</v>
       </c>
       <c r="B33">
         <v>77.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>2.7083333333333348E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>39231</v>
       </c>
       <c r="B34">
         <v>80</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>1.6666666666666663E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>39231</v>
       </c>
       <c r="B35">
         <v>82.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>1.5416666666666662E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>39231</v>
       </c>
       <c r="B36">
         <v>85</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>1.4166666666666661E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>39231</v>
       </c>
       <c r="B37">
         <v>87.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>1.291666666666666E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>39231</v>
       </c>
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>1.1666666666666665E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>39231</v>
       </c>
       <c r="B39">
         <v>92.5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>1.0416666666666664E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39231</v>
       </c>
       <c r="B40">
         <v>95</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>9.1666666666666632E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39231</v>
       </c>
       <c r="B41">
         <v>97.5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>7.9166666666666621E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>39231</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>6.666666666666668E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>39231</v>
       </c>
       <c r="B43">
         <v>102.5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>5.8333333333333362E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>39231</v>
       </c>
       <c r="B44">
         <v>105</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>39231</v>
       </c>
       <c r="B45">
         <v>107.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>4.1666666666666657E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>39231</v>
       </c>
       <c r="B46">
         <v>110</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>3.333333333333334E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>39231</v>
       </c>
       <c r="B47">
         <v>112.5</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>2.5000000000000022E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>39231</v>
       </c>
       <c r="B48">
         <v>115</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>1.6666666666666705E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>39231</v>
       </c>
       <c r="B49">
         <v>117.5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>8.333333333333387E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>39231</v>
       </c>
       <c r="B50">
         <v>120</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>39231</v>
       </c>
       <c r="B51">
         <v>122.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>39231</v>
       </c>
       <c r="B52">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>39231</v>
       </c>
       <c r="B53">
         <v>127.5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>39231</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>39231</v>
       </c>
       <c r="B55">
         <v>132.5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>39231</v>
       </c>
       <c r="B56">
         <v>135</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>39231</v>
       </c>
       <c r="B57">
         <v>137.5</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>39231</v>
       </c>
       <c r="B58">
         <v>140</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>39231</v>
       </c>
       <c r="B59">
         <v>142.5</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>4.1666666666666935E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>39231</v>
       </c>
       <c r="B60">
         <v>145</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>8.3333333333333523E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>39231</v>
       </c>
       <c r="B61">
         <v>147.5</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>1.2500000000000011E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>39231</v>
       </c>
       <c r="B62">
         <v>150</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>1.666666666666667E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>39231</v>
       </c>
       <c r="B63">
         <v>152.5</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>2.0833333333333363E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>39231</v>
       </c>
       <c r="B64">
         <v>155</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>2.5000000000000022E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>39231</v>
       </c>
       <c r="B65">
         <v>157.5</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>2.9166666666666681E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>39231</v>
       </c>
       <c r="B66">
         <v>160</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>3.333333333333334E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>39231</v>
       </c>
       <c r="B67">
         <v>162.5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>2.9166666666666681E-3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>39231</v>
       </c>
       <c r="B68">
         <v>165</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>2.4999999999999988E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>39231</v>
       </c>
       <c r="B69">
         <v>167.5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>2.0833333333333329E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>39231</v>
       </c>
       <c r="B70">
         <v>170</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>1.666666666666667E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>39231</v>
       </c>
       <c r="B71">
         <v>172.5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>1.2500000000000011E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>39231</v>
       </c>
       <c r="B72">
         <v>175</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>8.3333333333333176E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>39231</v>
       </c>
       <c r="B73">
         <v>177.5</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>4.1666666666666588E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>39231</v>
       </c>
       <c r="B74">
         <v>180</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>39231</v>
       </c>
       <c r="B75">
         <v>182.5</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>39231</v>
       </c>
       <c r="B76">
         <v>185</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>39231</v>
       </c>
       <c r="B77">
         <v>187.5</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>39231</v>
       </c>
       <c r="B78">
         <v>190</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>39231</v>
       </c>
       <c r="B79">
         <v>192.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>39231</v>
       </c>
       <c r="B80">
         <v>195</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>39231</v>
       </c>
       <c r="B81">
         <v>197.5</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>39231</v>
       </c>
       <c r="B82">
         <v>200</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
+      <c r="A84" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
+      <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
+      <c r="A88" s="1"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
+      <c r="A90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+      <c r="A97" s="1"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
+      <c r="A98" s="1"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+      <c r="A99" s="1"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
+      <c r="A100" s="1"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
+      <c r="A101" s="1"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
+      <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
+      <c r="A103" s="1"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
+      <c r="A104" s="1"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
+      <c r="A105" s="1"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
+      <c r="A106" s="1"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
+      <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
+      <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
+      <c r="A111" s="1"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
+      <c r="A118" s="1"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
+      <c r="A119" s="1"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
+      <c r="A120" s="1"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
+      <c r="A122" s="1"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
+      <c r="A123" s="1"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
+      <c r="A124" s="1"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2"/>
+      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
+      <c r="A126" s="1"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
+      <c r="A127" s="1"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
+      <c r="A128" s="1"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
+      <c r="A130" s="1"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
+      <c r="A131" s="1"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
+      <c r="A132" s="1"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
+      <c r="A137" s="1"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
+      <c r="A138" s="1"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2"/>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2"/>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2"/>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2"/>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2"/>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2"/>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2"/>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="2"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="2"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="2"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="2"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="2"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="2"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="2"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="2"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="2"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="2"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="2"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="2"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="2"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="2"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="2"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="2"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="2"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="2"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="2"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="2"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="2"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="2"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="2"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="2"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="2"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="2"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="2"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="2"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="2"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="2"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="2"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="2"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="2"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="2"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="2"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="2"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="2"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="2"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="2"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="2"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="2"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="2"/>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="2"/>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="2"/>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="2"/>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="2"/>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="2"/>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="2"/>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="2"/>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="2"/>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="2"/>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="2"/>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="2"/>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="2"/>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="2"/>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="2"/>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="2"/>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="2"/>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="2"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="2"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="2"/>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="2"/>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="2"/>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="2"/>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="2"/>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="2"/>
+      <c r="A280" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1905,7 +1909,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1922,893 +1926,893 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>39238</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>39238</v>
       </c>
       <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>51.375</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>39238</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>45.75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>39238</v>
       </c>
       <c r="B5">
         <v>7.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>40.125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>39238</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>34.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>39238</v>
       </c>
       <c r="B7">
         <v>12.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>28.875</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>39238</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>23.25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>39238</v>
       </c>
       <c r="B9">
         <v>17.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>17.625</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>39238</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>39238</v>
       </c>
       <c r="B11">
         <v>22.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>11.125</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>39238</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>10.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>39238</v>
       </c>
       <c r="B13">
         <v>27.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>9.375</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>39238</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>8.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>39238</v>
       </c>
       <c r="B15">
         <v>32.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>7.625</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>39238</v>
       </c>
       <c r="B16">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>6.75</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>39238</v>
       </c>
       <c r="B17">
         <v>37.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>5.875</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>39238</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>39238</v>
       </c>
       <c r="B19">
         <v>42.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>4.625</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>39238</v>
       </c>
       <c r="B20">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>4.25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>39238</v>
       </c>
       <c r="B21">
         <v>47.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>3.875</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>39238</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>39238</v>
       </c>
       <c r="B23">
         <v>52.5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>3.125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>39238</v>
       </c>
       <c r="B24">
         <v>55</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>2.75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>39238</v>
       </c>
       <c r="B25">
         <v>57.5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>2.375</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>39238</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>39238</v>
       </c>
       <c r="B27">
         <v>62.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>1.8791666666666664</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>39238</v>
       </c>
       <c r="B28">
         <v>65</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>1.7583333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>39238</v>
       </c>
       <c r="B29">
         <v>67.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>1.6375000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>39238</v>
       </c>
       <c r="B30">
         <v>70</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>1.5166666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>39238</v>
       </c>
       <c r="B31">
         <v>72.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>1.395833333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>39238</v>
       </c>
       <c r="B32">
         <v>75</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>1.2749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>39238</v>
       </c>
       <c r="B33">
         <v>77.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>1.1541666666666668</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>39238</v>
       </c>
       <c r="B34">
         <v>80</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>1.0333333333333328</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>39238</v>
       </c>
       <c r="B35">
         <v>82.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>0.96999999999999975</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>39238</v>
       </c>
       <c r="B36">
         <v>85</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>0.90666666666666629</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>39238</v>
       </c>
       <c r="B37">
         <v>87.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>0.84333333333333282</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>39238</v>
       </c>
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>0.7799999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>39238</v>
       </c>
       <c r="B39">
         <v>92.5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>0.71666666666666634</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39238</v>
       </c>
       <c r="B40">
         <v>95</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>0.65333333333333332</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39238</v>
       </c>
       <c r="B41">
         <v>97.5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>0.58999999999999986</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>39238</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>0.52666666666666639</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>39238</v>
       </c>
       <c r="B43">
         <v>102.5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>0.46999999999999975</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>39238</v>
       </c>
       <c r="B44">
         <v>105</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>0.41333333333333311</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>39238</v>
       </c>
       <c r="B45">
         <v>107.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>0.35666666666666647</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>39238</v>
       </c>
       <c r="B46">
         <v>110</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>0.29999999999999982</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>39238</v>
       </c>
       <c r="B47">
         <v>112.5</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>0.24333333333333318</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>39238</v>
       </c>
       <c r="B48">
         <v>115</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>0.18666666666666654</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>39238</v>
       </c>
       <c r="B49">
         <v>117.5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>0.12999999999999989</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>39238</v>
       </c>
       <c r="B50">
         <v>120</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>7.3333333333333306E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>39238</v>
       </c>
       <c r="B51">
         <v>122.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>6.6249999999999976E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>39238</v>
       </c>
       <c r="B52">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>5.9166666666666645E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>39238</v>
       </c>
       <c r="B53">
         <v>127.5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>39238</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>4.4999999999999984E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>39238</v>
       </c>
       <c r="B55">
         <v>132.5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>3.7916666666666654E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>39238</v>
       </c>
       <c r="B56">
         <v>135</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>3.0833333333333324E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>39238</v>
       </c>
       <c r="B57">
         <v>137.5</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>2.3749999999999993E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>39238</v>
       </c>
       <c r="B58">
         <v>140</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>39238</v>
       </c>
       <c r="B59">
         <v>142.5</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>1.6458333333333332E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>39238</v>
       </c>
       <c r="B60">
         <v>145</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>1.6250000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>39238</v>
       </c>
       <c r="B61">
         <v>147.5</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>1.6041666666666669E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>39238</v>
       </c>
       <c r="B62">
         <v>150</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>1.5833333333333331E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>39238</v>
       </c>
       <c r="B63">
         <v>152.5</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>39238</v>
       </c>
       <c r="B64">
         <v>155</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>1.5416666666666667E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>39238</v>
       </c>
       <c r="B65">
         <v>157.5</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>1.5208333333333334E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>39238</v>
       </c>
       <c r="B66">
         <v>160</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>39238</v>
       </c>
       <c r="B67">
         <v>162.5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>1.354166666666666E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>39238</v>
       </c>
       <c r="B68">
         <v>165</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>1.2083333333333335E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>39238</v>
       </c>
       <c r="B69">
         <v>167.5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>1.0624999999999996E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>39238</v>
       </c>
       <c r="B70">
         <v>170</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>9.1666666666666702E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>39238</v>
       </c>
       <c r="B71">
         <v>172.5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>7.7083333333333309E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>39238</v>
       </c>
       <c r="B72">
         <v>175</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>6.2500000000000056E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>39238</v>
       </c>
       <c r="B73">
         <v>177.5</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>4.7916666666666663E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>39238</v>
       </c>
       <c r="B74">
         <v>180</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>3.333333333333334E-3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>39238</v>
       </c>
       <c r="B75">
         <v>182.5</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>3.7500000000000033E-3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>39238</v>
       </c>
       <c r="B76">
         <v>185</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>4.1666666666666692E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>39238</v>
       </c>
       <c r="B77">
         <v>187.5</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>4.5833333333333386E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>39238</v>
       </c>
       <c r="B78">
         <v>190</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>5.000000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>39238</v>
       </c>
       <c r="B79">
         <v>192.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>5.4166666666666703E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>39238</v>
       </c>
       <c r="B80">
         <v>195</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>5.8333333333333327E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>39238</v>
       </c>
       <c r="B81">
         <v>197.5</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>6.2500000000000021E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>39238</v>
       </c>
       <c r="B82">
         <v>200</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>6.6666666666666714E-3</v>
       </c>
     </row>
@@ -2822,7 +2826,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2839,893 +2843,893 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>39245</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>76.666666666666671</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>39245</v>
       </c>
       <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>70.416666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>39245</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>64.166666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>39245</v>
       </c>
       <c r="B5">
         <v>7.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>57.916666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>39245</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>51.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>39245</v>
       </c>
       <c r="B7">
         <v>12.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>45.416666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>39245</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>39.166666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>39245</v>
       </c>
       <c r="B9">
         <v>17.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>32.916666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>39245</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>26.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>39245</v>
       </c>
       <c r="B11">
         <v>22.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>25.541666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>39245</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>24.416666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>39245</v>
       </c>
       <c r="B13">
         <v>27.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>23.291666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>39245</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>22.166666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>39245</v>
       </c>
       <c r="B15">
         <v>32.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>21.041666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>39245</v>
       </c>
       <c r="B16">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>19.916666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>39245</v>
       </c>
       <c r="B17">
         <v>37.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>18.791666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>39245</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>17.666666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>39245</v>
       </c>
       <c r="B19">
         <v>42.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>39245</v>
       </c>
       <c r="B20">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>16.333333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>39245</v>
       </c>
       <c r="B21">
         <v>47.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>15.666666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>39245</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>39245</v>
       </c>
       <c r="B23">
         <v>52.5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>14.333333333333332</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>39245</v>
       </c>
       <c r="B24">
         <v>55</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>13.666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>39245</v>
       </c>
       <c r="B25">
         <v>57.5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>39245</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>12.333333333333336</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>39245</v>
       </c>
       <c r="B27">
         <v>62.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>11.666666666666668</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>39245</v>
       </c>
       <c r="B28">
         <v>65</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>11.000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>39245</v>
       </c>
       <c r="B29">
         <v>67.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>10.333333333333336</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>39245</v>
       </c>
       <c r="B30">
         <v>70</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>9.6666666666666679</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>39245</v>
       </c>
       <c r="B31">
         <v>72.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>9.0000000000000036</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>39245</v>
       </c>
       <c r="B32">
         <v>75</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>8.3333333333333357</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>39245</v>
       </c>
       <c r="B33">
         <v>77.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>7.6666666666666679</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>39245</v>
       </c>
       <c r="B34">
         <v>80</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>39245</v>
       </c>
       <c r="B35">
         <v>82.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>39245</v>
       </c>
       <c r="B36">
         <v>85</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>6.8333333333333339</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>39245</v>
       </c>
       <c r="B37">
         <v>87.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>6.75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>39245</v>
       </c>
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>39245</v>
       </c>
       <c r="B39">
         <v>92.5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>6.5833333333333339</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39245</v>
       </c>
       <c r="B40">
         <v>95</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>6.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39245</v>
       </c>
       <c r="B41">
         <v>97.5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>6.4166666666666661</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>39245</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>39245</v>
       </c>
       <c r="B43">
         <v>102.5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>6.1666666666666661</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>39245</v>
       </c>
       <c r="B44">
         <v>105</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>39245</v>
       </c>
       <c r="B45">
         <v>107.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>5.833333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>39245</v>
       </c>
       <c r="B46">
         <v>110</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>5.6666666666666661</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>39245</v>
       </c>
       <c r="B47">
         <v>112.5</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>5.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>39245</v>
       </c>
       <c r="B48">
         <v>115</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>39245</v>
       </c>
       <c r="B49">
         <v>117.5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>5.166666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>39245</v>
       </c>
       <c r="B50">
         <v>120</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>39245</v>
       </c>
       <c r="B51">
         <v>122.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>4.625</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>39245</v>
       </c>
       <c r="B52">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>4.25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>39245</v>
       </c>
       <c r="B53">
         <v>127.5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>3.875</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>39245</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>39245</v>
       </c>
       <c r="B55">
         <v>132.5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>3.125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>39245</v>
       </c>
       <c r="B56">
         <v>135</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>2.75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>39245</v>
       </c>
       <c r="B57">
         <v>137.5</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>2.375</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>39245</v>
       </c>
       <c r="B58">
         <v>140</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>1.9999999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>39245</v>
       </c>
       <c r="B59">
         <v>142.5</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>1.9791666666666665</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>39245</v>
       </c>
       <c r="B60">
         <v>145</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>1.958333333333333</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>39245</v>
       </c>
       <c r="B61">
         <v>147.5</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>1.9374999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>39245</v>
       </c>
       <c r="B62">
         <v>150</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>1.9166666666666665</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>39245</v>
       </c>
       <c r="B63">
         <v>152.5</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>1.895833333333333</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>39245</v>
       </c>
       <c r="B64">
         <v>155</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>1.8749999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>39245</v>
       </c>
       <c r="B65">
         <v>157.5</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>1.8541666666666665</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>39245</v>
       </c>
       <c r="B66">
         <v>160</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>1.8333333333333339</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>39245</v>
       </c>
       <c r="B67">
         <v>162.5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>1.7208333333333332</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>39245</v>
       </c>
       <c r="B68">
         <v>165</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>1.6083333333333334</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>39245</v>
       </c>
       <c r="B69">
         <v>167.5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>1.4958333333333336</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>39245</v>
       </c>
       <c r="B70">
         <v>170</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>1.3833333333333337</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>39245</v>
       </c>
       <c r="B71">
         <v>172.5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>1.2708333333333339</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>39245</v>
       </c>
       <c r="B72">
         <v>175</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>1.1583333333333332</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>39245</v>
       </c>
       <c r="B73">
         <v>177.5</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>1.0458333333333334</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>39245</v>
       </c>
       <c r="B74">
         <v>180</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>0.93333333333333357</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>39245</v>
       </c>
       <c r="B75">
         <v>182.5</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>0.98750000000000027</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>39245</v>
       </c>
       <c r="B76">
         <v>185</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>1.0416666666666665</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>39245</v>
       </c>
       <c r="B77">
         <v>187.5</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>1.0958333333333337</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>39245</v>
       </c>
       <c r="B78">
         <v>190</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>39245</v>
       </c>
       <c r="B79">
         <v>192.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>1.2041666666666671</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>39245</v>
       </c>
       <c r="B80">
         <v>195</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>1.2583333333333333</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>39245</v>
       </c>
       <c r="B81">
         <v>197.5</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>1.3124999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>39245</v>
       </c>
       <c r="B82">
         <v>200</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>1.3666666666666667</v>
       </c>
     </row>
@@ -3739,7 +3743,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3756,893 +3760,893 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>39252</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>83.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>39252</v>
       </c>
       <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>79.583333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>39252</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>75.833333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>39252</v>
       </c>
       <c r="B5">
         <v>7.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>72.083333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>39252</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>68.333333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>39252</v>
       </c>
       <c r="B7">
         <v>12.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>64.583333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>39252</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>60.833333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>39252</v>
       </c>
       <c r="B9">
         <v>17.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>57.083333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>39252</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>53.333333333333343</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>39252</v>
       </c>
       <c r="B11">
         <v>22.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>50.916666666666686</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>39252</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>48.500000000000014</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>39252</v>
       </c>
       <c r="B13">
         <v>27.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>46.083333333333343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>39252</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>43.666666666666679</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>39252</v>
       </c>
       <c r="B15">
         <v>32.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>41.250000000000014</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>39252</v>
       </c>
       <c r="B16">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>38.833333333333343</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>39252</v>
       </c>
       <c r="B17">
         <v>37.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>36.416666666666679</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>39252</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>39252</v>
       </c>
       <c r="B19">
         <v>42.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>32.875</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>39252</v>
       </c>
       <c r="B20">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>31.75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>39252</v>
       </c>
       <c r="B21">
         <v>47.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>30.625</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>39252</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>29.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>39252</v>
       </c>
       <c r="B23">
         <v>52.5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>28.375</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>39252</v>
       </c>
       <c r="B24">
         <v>55</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>27.25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>39252</v>
       </c>
       <c r="B25">
         <v>57.5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>26.125</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>39252</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>39252</v>
       </c>
       <c r="B27">
         <v>62.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>24.25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>39252</v>
       </c>
       <c r="B28">
         <v>65</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>23.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>39252</v>
       </c>
       <c r="B29">
         <v>67.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>22.75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>39252</v>
       </c>
       <c r="B30">
         <v>70</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>39252</v>
       </c>
       <c r="B31">
         <v>72.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>21.25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>39252</v>
       </c>
       <c r="B32">
         <v>75</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>20.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>39252</v>
       </c>
       <c r="B33">
         <v>77.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>19.75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>39252</v>
       </c>
       <c r="B34">
         <v>80</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>39252</v>
       </c>
       <c r="B35">
         <v>82.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>39252</v>
       </c>
       <c r="B36">
         <v>85</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>39252</v>
       </c>
       <c r="B37">
         <v>87.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>39252</v>
       </c>
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>39252</v>
       </c>
       <c r="B39">
         <v>92.5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39252</v>
       </c>
       <c r="B40">
         <v>95</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39252</v>
       </c>
       <c r="B41">
         <v>97.5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>39252</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>19.000000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>39252</v>
       </c>
       <c r="B43">
         <v>102.5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>18.833333333333336</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>39252</v>
       </c>
       <c r="B44">
         <v>105</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>18.666666666666671</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>39252</v>
       </c>
       <c r="B45">
         <v>107.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>18.500000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>39252</v>
       </c>
       <c r="B46">
         <v>110</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>18.333333333333336</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>39252</v>
       </c>
       <c r="B47">
         <v>112.5</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>18.166666666666671</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>39252</v>
       </c>
       <c r="B48">
         <v>115</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>18.000000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>39252</v>
       </c>
       <c r="B49">
         <v>117.5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>17.833333333333336</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>39252</v>
       </c>
       <c r="B50">
         <v>120</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>17.666666666666668</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>39252</v>
       </c>
       <c r="B51">
         <v>122.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>17.375</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>39252</v>
       </c>
       <c r="B52">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>17.083333333333336</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>39252</v>
       </c>
       <c r="B53">
         <v>127.5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>16.791666666666668</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>39252</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>16.5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>39252</v>
       </c>
       <c r="B55">
         <v>132.5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>16.208333333333336</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>39252</v>
       </c>
       <c r="B56">
         <v>135</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>15.916666666666668</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>39252</v>
       </c>
       <c r="B57">
         <v>137.5</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>15.625</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>39252</v>
       </c>
       <c r="B58">
         <v>140</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>15.333333333333336</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>39252</v>
       </c>
       <c r="B59">
         <v>142.5</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>14.75</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>39252</v>
       </c>
       <c r="B60">
         <v>145</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>14.166666666666664</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>39252</v>
       </c>
       <c r="B61">
         <v>147.5</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>13.583333333333329</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>39252</v>
       </c>
       <c r="B62">
         <v>150</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>39252</v>
       </c>
       <c r="B63">
         <v>152.5</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>12.416666666666664</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>39252</v>
       </c>
       <c r="B64">
         <v>155</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>11.833333333333329</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>39252</v>
       </c>
       <c r="B65">
         <v>157.5</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>11.25</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>39252</v>
       </c>
       <c r="B66">
         <v>160</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>10.666666666666664</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>39252</v>
       </c>
       <c r="B67">
         <v>162.5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>10.708333333333332</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>39252</v>
       </c>
       <c r="B68">
         <v>165</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>10.749999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>39252</v>
       </c>
       <c r="B69">
         <v>167.5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>10.791666666666664</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>39252</v>
       </c>
       <c r="B70">
         <v>170</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>10.833333333333332</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>39252</v>
       </c>
       <c r="B71">
         <v>172.5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>10.874999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>39252</v>
       </c>
       <c r="B72">
         <v>175</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>10.916666666666664</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>39252</v>
       </c>
       <c r="B73">
         <v>177.5</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>10.958333333333332</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>39252</v>
       </c>
       <c r="B74">
         <v>180</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>39252</v>
       </c>
       <c r="B75">
         <v>182.5</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>39252</v>
       </c>
       <c r="B76">
         <v>185</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>39252</v>
       </c>
       <c r="B77">
         <v>187.5</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>39252</v>
       </c>
       <c r="B78">
         <v>190</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>39252</v>
       </c>
       <c r="B79">
         <v>192.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>39252</v>
       </c>
       <c r="B80">
         <v>195</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>39252</v>
       </c>
       <c r="B81">
         <v>197.5</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>39252</v>
       </c>
       <c r="B82">
         <v>200</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>11</v>
       </c>
     </row>
@@ -4656,7 +4660,7 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4673,893 +4677,893 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>39259</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>87.666666666666671</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>39259</v>
       </c>
       <c r="B3">
         <v>2.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>85.875</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>39259</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>84.083333333333343</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>39259</v>
       </c>
       <c r="B5">
         <v>7.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>82.291666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>39259</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>80.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>39259</v>
       </c>
       <c r="B7">
         <v>12.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>78.708333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>39259</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>76.916666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>39259</v>
       </c>
       <c r="B9">
         <v>17.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>75.125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>39259</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>73.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>39259</v>
       </c>
       <c r="B11">
         <v>22.5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>72.291666666666657</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>39259</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>71.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>39259</v>
       </c>
       <c r="B13">
         <v>27.5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>70.208333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>39259</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>69.166666666666657</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>39259</v>
       </c>
       <c r="B15">
         <v>32.5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>68.125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>39259</v>
       </c>
       <c r="B16">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>67.083333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>39259</v>
       </c>
       <c r="B17">
         <v>37.5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>66.041666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>39259</v>
       </c>
       <c r="B18">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>39259</v>
       </c>
       <c r="B19">
         <v>42.5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>63.958333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>39259</v>
       </c>
       <c r="B20">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>62.916666666666664</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>39259</v>
       </c>
       <c r="B21">
         <v>47.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>61.875</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>39259</v>
       </c>
       <c r="B22">
         <v>50</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>60.833333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>39259</v>
       </c>
       <c r="B23">
         <v>52.5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>59.791666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>39259</v>
       </c>
       <c r="B24">
         <v>55</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>58.75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>39259</v>
       </c>
       <c r="B25">
         <v>57.5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>57.708333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>39259</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>56.666666666666657</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>39259</v>
       </c>
       <c r="B27">
         <v>62.5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>54.666666666666657</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>39259</v>
       </c>
       <c r="B28">
         <v>65</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>52.666666666666657</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>39259</v>
       </c>
       <c r="B29">
         <v>67.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>50.666666666666657</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>39259</v>
       </c>
       <c r="B30">
         <v>70</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>48.666666666666657</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>39259</v>
       </c>
       <c r="B31">
         <v>72.5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>46.666666666666657</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>39259</v>
       </c>
       <c r="B32">
         <v>75</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>44.666666666666657</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>39259</v>
       </c>
       <c r="B33">
         <v>77.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>42.666666666666657</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>39259</v>
       </c>
       <c r="B34">
         <v>80</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>40.666666666666657</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>39259</v>
       </c>
       <c r="B35">
         <v>82.5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>40.458333333333321</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>39259</v>
       </c>
       <c r="B36">
         <v>85</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>40.249999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>39259</v>
       </c>
       <c r="B37">
         <v>87.5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>40.041666666666657</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>39259</v>
       </c>
       <c r="B38">
         <v>90</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>39.833333333333329</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>39259</v>
       </c>
       <c r="B39">
         <v>92.5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>39.624999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39259</v>
       </c>
       <c r="B40">
         <v>95</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>39.416666666666657</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>39259</v>
       </c>
       <c r="B41">
         <v>97.5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>39.208333333333329</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>39259</v>
       </c>
       <c r="B42">
         <v>100</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>39259</v>
       </c>
       <c r="B43">
         <v>102.5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>38.375</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>39259</v>
       </c>
       <c r="B44">
         <v>105</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>37.75</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>39259</v>
       </c>
       <c r="B45">
         <v>107.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>37.125</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>39259</v>
       </c>
       <c r="B46">
         <v>110</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>36.5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>39259</v>
       </c>
       <c r="B47">
         <v>112.5</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>35.875</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>39259</v>
       </c>
       <c r="B48">
         <v>115</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>35.25</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>39259</v>
       </c>
       <c r="B49">
         <v>117.5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>34.625</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>39259</v>
       </c>
       <c r="B50">
         <v>120</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>39259</v>
       </c>
       <c r="B51">
         <v>122.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>33.5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>39259</v>
       </c>
       <c r="B52">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>39259</v>
       </c>
       <c r="B53">
         <v>127.5</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>32.5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>39259</v>
       </c>
       <c r="B54">
         <v>130</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>39259</v>
       </c>
       <c r="B55">
         <v>132.5</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>31.5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>39259</v>
       </c>
       <c r="B56">
         <v>135</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>39259</v>
       </c>
       <c r="B57">
         <v>137.5</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>30.5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>39259</v>
       </c>
       <c r="B58">
         <v>140</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>39259</v>
       </c>
       <c r="B59">
         <v>142.5</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>29.25</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>39259</v>
       </c>
       <c r="B60">
         <v>145</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>28.5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>39259</v>
       </c>
       <c r="B61">
         <v>147.5</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>27.75</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>39259</v>
       </c>
       <c r="B62">
         <v>150</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>39259</v>
       </c>
       <c r="B63">
         <v>152.5</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>26.25</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>39259</v>
       </c>
       <c r="B64">
         <v>155</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>25.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>39259</v>
       </c>
       <c r="B65">
         <v>157.5</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>24.75</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>39259</v>
       </c>
       <c r="B66">
         <v>160</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>39259</v>
       </c>
       <c r="B67">
         <v>162.5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>23.708333333333332</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>39259</v>
       </c>
       <c r="B68">
         <v>165</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>23.416666666666664</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>39259</v>
       </c>
       <c r="B69">
         <v>167.5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>23.125</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>39259</v>
       </c>
       <c r="B70">
         <v>170</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>22.833333333333332</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>39259</v>
       </c>
       <c r="B71">
         <v>172.5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>22.541666666666668</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>39259</v>
       </c>
       <c r="B72">
         <v>175</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>22.25</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>39259</v>
       </c>
       <c r="B73">
         <v>177.5</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>21.958333333333332</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>39259</v>
       </c>
       <c r="B74">
         <v>180</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>21.666666666666668</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>39259</v>
       </c>
       <c r="B75">
         <v>182.5</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>22.000000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>39259</v>
       </c>
       <c r="B76">
         <v>185</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>22.333333333333336</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>39259</v>
       </c>
       <c r="B77">
         <v>187.5</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>22.666666666666668</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>39259</v>
       </c>
       <c r="B78">
         <v>190</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>39259</v>
       </c>
       <c r="B79">
         <v>192.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>23.333333333333336</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>39259</v>
       </c>
       <c r="B80">
         <v>195</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>23.666666666666668</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>39259</v>
       </c>
       <c r="B81">
         <v>197.5</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>39259</v>
       </c>
       <c r="B82">
         <v>200</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>24.333333333333332</v>
       </c>
     </row>
